--- a/Excel/Planilhas Principais/Geral/Parametros/Regressão Multipla.xlsx
+++ b/Excel/Planilhas Principais/Geral/Parametros/Regressão Multipla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Excel\Planilhas Principais\Geral\Parametros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C36CC83-3F0C-465D-9334-3A94AC4CC8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F48F1-9505-4B65-ACCE-8093ED8D4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8BBD0575-6A9F-4FC4-877D-C4DDE0B58F44}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>Modelo 1</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>WAV2</t>
+  </si>
+  <si>
+    <t>Registros</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>WAV 2</t>
+  </si>
+  <si>
+    <t>Espécies</t>
+  </si>
+  <si>
+    <t>Estatística</t>
   </si>
 </sst>
 </file>
@@ -116,13 +134,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,30 +917,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F313304-324A-42F7-AECF-62C51591610F}">
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B16" sqref="B16:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -936,8 +964,11 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,8 +990,20 @@
       <c r="H3" s="3">
         <v>355.7285</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -982,8 +1025,23 @@
       <c r="H4" s="3">
         <v>360.8741</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.2283</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.25679999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1005,8 +1063,21 @@
       <c r="H5" s="3">
         <v>391.06909999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L5" s="5"/>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>1E-4</v>
+      </c>
+      <c r="O5">
+        <v>1E-4</v>
+      </c>
+      <c r="P5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1099,23 @@
       <c r="H6" s="3">
         <v>352.73970000000003</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.2671</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.25240000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1051,233 +1137,389 @@
       <c r="H7" s="3">
         <v>403.84739999999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>1E-4</v>
+      </c>
+      <c r="O7">
+        <v>1E-4</v>
+      </c>
+      <c r="P7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="P12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.1699</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.24759999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L14" s="5"/>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>1E-4</v>
+      </c>
+      <c r="O14">
+        <v>1E-4</v>
+      </c>
+      <c r="P14">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.1724</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.24340000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
+      <c r="H16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>1E-4</v>
+      </c>
+      <c r="O16">
+        <v>1E-4</v>
+      </c>
+      <c r="P16">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="L17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.82820000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>870.65120000000002</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>888.44039999999995</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>364.9235362</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>377.55975999999998</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>74.789609999999996</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>87.402780000000007</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>1E-4</v>
+      </c>
+      <c r="O18">
+        <v>1E-4</v>
+      </c>
+      <c r="P18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>872.6164</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>894.85289999999998</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>365.38125989999998</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>381.17653999999999</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>76.714709999999997</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <v>92.481170000000006</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="L19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.9103</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.82740000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>-403.19009999999997</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>-380.95359999999999</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>20.8992006</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>36.694479999999999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>-179.7569</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>-163.99044000000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1E-4</v>
+      </c>
+      <c r="O20">
+        <v>1E-4</v>
+      </c>
+      <c r="P20">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>-402.89600000000002</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>-376.21210000000002</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>0.28573979999999999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>19.240069999999999</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>-177.92750000000001</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>-159.00774999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>1034.0706</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>1047.4124999999999</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>368.92620770000002</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>378.40337</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>112.25309</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>121.71297</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>877.07569999999998</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>890.41759999999999</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>381.18766010000002</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>390.66482999999999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>74.536749999999998</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>83.996619999999993</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>1083.6729</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>1097.0147999999999</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>393.59675110000001</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <v>403.07391999999999</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <v>123.98891999999999</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>133.44879</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>-399.49209999999999</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>-386.15019999999998</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>22.5294965</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>32.006659999999997</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>-181.78924000000001</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>-172.32936000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
